--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiepAnh\Documents\Group-30\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE763821-6571-4070-A72C-B6C01E6EC10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF98A6A-9A8E-445A-8442-2B8D30FA7455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1078,14 +1078,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tesst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,9 +1114,6 @@
       <c r="G2">
         <v>12345678</v>
       </c>
-      <c r="H2">
-        <v>107011011</v>
-      </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
@@ -1242,9 +1239,6 @@
       <c r="G6">
         <v>13532664</v>
       </c>
-      <c r="H6">
-        <v>107055015</v>
-      </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
@@ -1370,9 +1364,6 @@
       <c r="G10">
         <v>12345678</v>
       </c>
-      <c r="H10">
-        <v>107011011</v>
-      </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
@@ -1497,9 +1488,6 @@
       </c>
       <c r="G14">
         <v>13532664</v>
-      </c>
-      <c r="H14">
-        <v>107055015</v>
       </c>
       <c r="I14" t="s">
         <v>9</v>
@@ -1614,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -1042,7 +1042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1602,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D7B49-B478-49BE-A9A5-46257BD46ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -188,12 +189,6 @@
   </si>
   <si>
     <t>Inactive</t>
-  </si>
-  <si>
-    <t>Manufacturing industries</t>
-  </si>
-  <si>
-    <t>Administrative offices</t>
   </si>
   <si>
     <t>Administrative office</t>
@@ -205,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,11 +1594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1681,7 @@
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>55</v>
@@ -1712,7 +1707,7 @@
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
         <v>54</v>
@@ -1787,7 +1782,7 @@
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
         <v>55</v>
@@ -1813,7 +1808,7 @@
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
         <v>54</v>
@@ -1842,208 +1837,6 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>12345678</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>67234325</v>
-      </c>
-      <c r="F11">
-        <v>107022012</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>72846835</v>
-      </c>
-      <c r="F12">
-        <v>107033013</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>35435432</v>
-      </c>
-      <c r="F13">
-        <v>107044014</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14">
-        <v>13532664</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15">
-        <v>35325677</v>
-      </c>
-      <c r="F15">
-        <v>107066016</v>
-      </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>35245234</v>
-      </c>
-      <c r="F16">
-        <v>107077017</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>23535344</v>
-      </c>
-      <c r="F17">
-        <v>107088018</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D7B49-B478-49BE-A9A5-46257BD46ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386B6C4-3EE9-4E60-B0F6-BD491FF3F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -1037,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,7 +1047,7 @@
     <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7386B6C4-3EE9-4E60-B0F6-BD491FF3F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3351CB2D-A90C-440B-88B4-1D112347B0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -191,10 +191,151 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>Administrative office</t>
-  </si>
-  <si>
-    <t>Manufacturing industry</t>
+    <t>MeterReading</t>
+  </si>
+  <si>
+    <t>Phạm Quốc Bảo</t>
+  </si>
+  <si>
+    <t>0358619375</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Anh</t>
+  </si>
+  <si>
+    <t>0358619376</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chi</t>
+  </si>
+  <si>
+    <t>0358619377</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Đức</t>
+  </si>
+  <si>
+    <t>0358619378</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Huy</t>
+  </si>
+  <si>
+    <t>0358619379</t>
+  </si>
+  <si>
+    <t>Đỗ Tiến Đạt</t>
+  </si>
+  <si>
+    <t>0358619380</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>0358619381</t>
+  </si>
+  <si>
+    <t>Lê Tuần Hùng</t>
+  </si>
+  <si>
+    <t>0358619382</t>
+  </si>
+  <si>
+    <t>CH001203008880</t>
+  </si>
+  <si>
+    <t>Đinh Huy Hoàng</t>
+  </si>
+  <si>
+    <t>20_Hoang Quoc Viet_Nghia Do_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619383</t>
+  </si>
+  <si>
+    <t>CH001203008881</t>
+  </si>
+  <si>
+    <t>Vũ Thu Giang</t>
+  </si>
+  <si>
+    <t>25 Nguyen Khanh Toan_Quan Hoa_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619384</t>
+  </si>
+  <si>
+    <t>CH001203008882</t>
+  </si>
+  <si>
+    <t>Đỗ Sinh Hùng</t>
+  </si>
+  <si>
+    <t>13 Tran Thai Tong_Dich Vong Hau_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619385</t>
+  </si>
+  <si>
+    <t>CH001203008883</t>
+  </si>
+  <si>
+    <t>Võ Trường Giang</t>
+  </si>
+  <si>
+    <t>6 Nguyen Phong Sac_Dich Vong_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619386</t>
+  </si>
+  <si>
+    <t>CH001203008884</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Anh</t>
+  </si>
+  <si>
+    <t>30 Nguyen Van Huyen_Trung Hoa_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619387</t>
+  </si>
+  <si>
+    <t>CH001203008885</t>
+  </si>
+  <si>
+    <t>Nguyen Hoang Nam</t>
+  </si>
+  <si>
+    <t>10 Hoang Minh Giam_Trung Hoa_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619388</t>
+  </si>
+  <si>
+    <t>CH001203008886</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Đức</t>
+  </si>
+  <si>
+    <t>23 Pham Tuan Tai_Dich Vong Hau_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619389</t>
+  </si>
+  <si>
+    <t>CH001203008887</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Bách</t>
+  </si>
+  <si>
+    <t>8 Nguyen Khang_Dich Vong Hau_Cau Giay_Ha Noi</t>
+  </si>
+  <si>
+    <t>0358619390</t>
   </si>
 </sst>
 </file>
@@ -678,8 +819,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1035,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K17"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,11 +1194,12 @@
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1084,10 +1228,13 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1112,11 +1259,14 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>13216</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1144,11 +1294,14 @@
       <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1651</v>
+      </c>
+      <c r="K3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1176,11 +1329,14 @@
       <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>65165</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1208,11 +1364,14 @@
       <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1237,11 +1396,14 @@
       <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>513</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1269,11 +1431,14 @@
       <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>5161</v>
+      </c>
+      <c r="K7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1301,11 +1466,14 @@
       <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>16515</v>
+      </c>
+      <c r="K8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1333,11 +1501,14 @@
       <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>6513</v>
+      </c>
+      <c r="K9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1362,11 +1533,14 @@
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>516</v>
+      </c>
+      <c r="K10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1394,11 +1568,14 @@
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>6351</v>
+      </c>
+      <c r="K11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1426,11 +1603,14 @@
       <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12">
+        <v>6351</v>
+      </c>
+      <c r="K12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1458,11 +1638,14 @@
       <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <v>651</v>
+      </c>
+      <c r="K13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1487,11 +1670,14 @@
       <c r="I14" t="s">
         <v>9</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1519,11 +1705,14 @@
       <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>1651</v>
+      </c>
+      <c r="K15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1551,11 +1740,14 @@
       <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>6513216</v>
+      </c>
+      <c r="K16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1583,7 +1775,10 @@
       <c r="I17" t="s">
         <v>24</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>196816</v>
+      </c>
+      <c r="K17" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1595,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,233 +1805,450 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1">
         <v>12345678</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1">
+        <v>131</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
         <v>67234325</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>107022012</v>
       </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>231</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
         <v>72846835</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>107033013</v>
       </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1">
         <v>35435432</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>107044014</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1">
         <v>13532664</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1">
         <v>35325677</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>107066016</v>
       </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1">
         <v>35245234</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>107077017</v>
       </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1">
         <v>23535344</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>107088018</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12345678</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1">
+        <v>67334325</v>
+      </c>
+      <c r="F11" s="1">
+        <v>107022020</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>72846835</v>
+      </c>
+      <c r="F12" s="1">
+        <v>107033021</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35465432</v>
+      </c>
+      <c r="F13" s="1">
+        <v>107044022</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13532750</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1">
+        <v>35325690</v>
+      </c>
+      <c r="F15" s="1">
+        <v>107066023</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>35245352</v>
+      </c>
+      <c r="F16" s="1">
+        <v>107077025</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="1">
+        <v>23790344</v>
+      </c>
+      <c r="F17" s="1">
+        <v>107088035</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DE7699-A81B-4BBF-A6C5-147211F687D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5736E5-EE0F-4575-BEFF-5CB2244BAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="data_meterreading" sheetId="3" r:id="rId2"/>
     <sheet name="filtered_data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="114">
   <si>
     <t>Customer Code</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>MeterReading</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>10 Tran Thai Tong_Dich Vong Hau_Cau Giay_Ha Noi</t>
   </si>
   <si>
-    <t>Administrative_offices</t>
-  </si>
-  <si>
     <t>CH001203008875</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Lê Tuần Hùng</t>
   </si>
   <si>
-    <t>7 Nguyen Khang_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008880</t>
   </si>
   <si>
@@ -156,27 +147,18 @@
     <t>Vũ Thu Giang</t>
   </si>
   <si>
-    <t>25 Nguyen Khanh Toan_Quan Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008882</t>
   </si>
   <si>
     <t>Đỗ Sinh Hùng</t>
   </si>
   <si>
-    <t>13 Tran Thai Tong_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008883</t>
   </si>
   <si>
     <t>Võ Trường Giang</t>
   </si>
   <si>
-    <t>6 Nguyen Phong Sac_Dich Vong_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008884</t>
   </si>
   <si>
@@ -192,27 +174,18 @@
     <t>Nguyen Hoang Nam</t>
   </si>
   <si>
-    <t>10 Hoang Minh Giam_Trung Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008886</t>
   </si>
   <si>
     <t>Hoàng Minh Đức</t>
   </si>
   <si>
-    <t>23 Pham Tuan Tai_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008887</t>
   </si>
   <si>
     <t>Nguyễn Gia Bách</t>
   </si>
   <si>
-    <t>8 Nguyen Khang_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>Residential address</t>
   </si>
   <si>
@@ -331,13 +304,73 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Administrative offices</t>
+  </si>
+  <si>
+    <t>Manufacturing industries</t>
+  </si>
+  <si>
+    <t>19, Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>22 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>10 Tran Thai Tong, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>5 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>27 Nguyen Van Huyen, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>17 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>20 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>7 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>20, Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>25 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>13 Tran Thai Tong, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>6 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>30 Nguyen Van Huyen, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>10 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>23 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>8 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +509,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -834,12 +873,15 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1187,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775A06F9-4751-4926-A207-2E152BB56E20}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,10 +1242,11 @@
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1213,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -1231,511 +1274,511 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12345678</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="4">
+        <v>67234325</v>
+      </c>
+      <c r="H3" s="4">
+        <v>107022012</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4">
+        <v>72846835</v>
+      </c>
+      <c r="H4" s="4">
+        <v>107033013</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="4">
+        <v>35435432</v>
+      </c>
+      <c r="H5" s="4">
+        <v>107044014</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13532664</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="3">
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="4">
+        <v>35325677</v>
+      </c>
+      <c r="H7" s="4">
+        <v>107066016</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4">
+        <v>35245234</v>
+      </c>
+      <c r="H8" s="4">
+        <v>107077017</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4">
+        <v>23535344</v>
+      </c>
+      <c r="H9" s="4">
+        <v>107088018</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="4">
         <v>12345678</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="3">
-        <v>67234325</v>
-      </c>
-      <c r="H3" s="3">
-        <v>107022012</v>
-      </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="4">
+        <v>67334325</v>
+      </c>
+      <c r="H11" s="4">
+        <v>107022020</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4">
         <v>72846835</v>
       </c>
-      <c r="H4" s="3">
-        <v>107033013</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H12" s="4">
+        <v>107033021</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="4">
+        <v>35465432</v>
+      </c>
+      <c r="H13" s="4">
+        <v>107044022</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="3">
-        <v>35435432</v>
-      </c>
-      <c r="H5" s="3">
-        <v>107044014</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="3">
-        <v>13532664</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4">
+        <v>13532750</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="3">
-        <v>35325677</v>
-      </c>
-      <c r="H7" s="3">
-        <v>107066016</v>
-      </c>
-      <c r="I7" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="4">
+        <v>35325690</v>
+      </c>
+      <c r="H15" s="4">
+        <v>107066023</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="3">
-        <v>35245234</v>
-      </c>
-      <c r="H8" s="3">
-        <v>107077017</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="3">
-        <v>23535344</v>
-      </c>
-      <c r="H9" s="3">
-        <v>107088018</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="4">
+        <v>35245352</v>
+      </c>
+      <c r="H16" s="4">
+        <v>107077025</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="3">
-        <v>67334325</v>
-      </c>
-      <c r="H11" s="3">
-        <v>107022020</v>
-      </c>
-      <c r="I11" s="3" t="s">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="4">
+        <v>23790344</v>
+      </c>
+      <c r="H17" s="4">
+        <v>107088035</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="3">
-        <v>72846835</v>
-      </c>
-      <c r="H12" s="3">
-        <v>107033021</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="3">
-        <v>35465432</v>
-      </c>
-      <c r="H13" s="3">
-        <v>107044022</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="3">
-        <v>13532750</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="3">
-        <v>35325690</v>
-      </c>
-      <c r="H15" s="3">
-        <v>107066023</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="3">
-        <v>35245352</v>
-      </c>
-      <c r="H16" s="3">
-        <v>107077025</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="3">
-        <v>23790344</v>
-      </c>
-      <c r="H17" s="3">
-        <v>107088035</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1747,17 +1790,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E65995-82F9-4470-BB1A-A37DA988E30A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1770,351 +1813,303 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4">
+        <v>131</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
-        <v>131</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>67234325</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="4">
         <v>107022012</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>139</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3">
-        <v>139</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
-        <v>72846835</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4">
         <v>107033013</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4">
+        <v>107044014</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3">
-        <v>35435432</v>
-      </c>
-      <c r="D5" s="3">
-        <v>107044014</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3">
-        <v>13532664</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <v>107066016</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4">
+        <v>107077017</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3">
-        <v>35325677</v>
-      </c>
-      <c r="D7" s="3">
-        <v>107066016</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>107088018</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3">
-        <v>35245234</v>
-      </c>
-      <c r="D8" s="3">
-        <v>107077017</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3">
-        <v>23535344</v>
-      </c>
-      <c r="D9" s="3">
-        <v>107088018</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3">
-        <v>12345678</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="C11" s="4">
+        <v>107022020</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4">
+        <v>107033021</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3">
-        <v>67334325</v>
-      </c>
-      <c r="D11" s="3">
-        <v>107022020</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4">
+        <v>107044022</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3">
-        <v>72846835</v>
-      </c>
-      <c r="D12" s="3">
-        <v>107033021</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="3">
-        <v>35465432</v>
-      </c>
-      <c r="D13" s="3">
-        <v>107044022</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="C15" s="4">
+        <v>107066023</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C16" s="4">
+        <v>107077025</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3">
-        <v>13532750</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3">
-        <v>35325690</v>
-      </c>
-      <c r="D15" s="3">
-        <v>107066023</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4">
+        <v>107088035</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3">
-        <v>35245352</v>
-      </c>
-      <c r="D16" s="3">
-        <v>107077025</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3">
-        <v>23790344</v>
-      </c>
-      <c r="D17" s="3">
-        <v>107088035</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2127,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,18 +2161,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>358619375</v>
@@ -2186,21 +2181,21 @@
         <v>12345678</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>358619376</v>
@@ -2212,21 +2207,21 @@
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>358619377</v>
@@ -2238,21 +2233,21 @@
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>358619378</v>
@@ -2264,21 +2259,21 @@
         <v>107044014</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>358619379</v>
@@ -2287,21 +2282,21 @@
         <v>13532664</v>
       </c>
       <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>358619380</v>
@@ -2313,21 +2308,21 @@
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="D8">
         <v>358619381</v>
@@ -2339,21 +2334,21 @@
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>358619382</v>
@@ -2365,21 +2360,21 @@
         <v>107088018</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>358619383</v>
@@ -2388,21 +2383,21 @@
         <v>12345678</v>
       </c>
       <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D11">
         <v>358619384</v>
@@ -2414,21 +2409,21 @@
         <v>107022020</v>
       </c>
       <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
         <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>358619385</v>
@@ -2440,21 +2435,21 @@
         <v>107033021</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D13">
         <v>358619386</v>
@@ -2466,21 +2461,21 @@
         <v>107044022</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>358619387</v>
@@ -2489,21 +2484,21 @@
         <v>13532750</v>
       </c>
       <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
         <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>358619388</v>
@@ -2515,21 +2510,21 @@
         <v>107066023</v>
       </c>
       <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
         <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>358619389</v>
@@ -2541,21 +2536,21 @@
         <v>107077025</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>358619390</v>
@@ -2567,10 +2562,10 @@
         <v>107088035</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5736E5-EE0F-4575-BEFF-5CB2244BAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D4229E-B8A3-4976-9A6A-A154A5D86A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="2" r:id="rId1"/>
-    <sheet name="data_meterreading" sheetId="3" r:id="rId2"/>
-    <sheet name="filtered_data" sheetId="1" r:id="rId3"/>
+    <sheet name="filtered_data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
   <si>
     <t>Customer Code</t>
   </si>
@@ -72,9 +71,6 @@
     <t>22 Nguyen Khanh Toan_Quan Hoa_Cau Giay_Ha Noi</t>
   </si>
   <si>
-    <t>Manufacturing_industries</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
@@ -304,12 +300,6 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
   </si>
   <si>
     <t>Administrative offices</t>
@@ -370,18 +360,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -514,7 +499,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -698,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -828,62 +813,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1230,7 +1231,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,539 +1247,535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="5">
+        <v>938361110233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5">
+        <v>686251751302</v>
+      </c>
+      <c r="H3">
+        <v>107022012</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5">
+        <v>112069168513</v>
+      </c>
+      <c r="H4">
+        <v>107033013</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="4">
-        <v>12345678</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5">
+        <v>411677269452</v>
+      </c>
+      <c r="H5">
+        <v>107044014</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5">
+        <v>149379069643</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="4">
-        <v>67234325</v>
-      </c>
-      <c r="H3" s="4">
-        <v>107022012</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="5">
+        <v>420799467499</v>
+      </c>
+      <c r="H7">
+        <v>107066016</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="5">
+        <v>475793365124</v>
+      </c>
+      <c r="H8">
+        <v>107077017</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="5">
+        <v>270432965116</v>
+      </c>
+      <c r="H9">
+        <v>107088018</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="5">
+        <v>572786363529</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5">
+        <v>722274884150</v>
+      </c>
+      <c r="H11">
+        <v>107022020</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="4">
-        <v>72846835</v>
-      </c>
-      <c r="H4" s="4">
-        <v>107033013</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="5">
+        <v>475544881837</v>
+      </c>
+      <c r="H12">
+        <v>107033021</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5">
+        <v>667099622731</v>
+      </c>
+      <c r="H13">
+        <v>107044022</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="4">
-        <v>35435432</v>
-      </c>
-      <c r="H5" s="4">
-        <v>107044014</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="4">
-        <v>13532664</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="5">
+        <v>508720153385</v>
+      </c>
+      <c r="I14" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="4">
-        <v>35325677</v>
-      </c>
-      <c r="H7" s="4">
-        <v>107066016</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="4">
-        <v>35245234</v>
-      </c>
-      <c r="H8" s="4">
-        <v>107077017</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="4" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="5">
+        <v>398287229537</v>
+      </c>
+      <c r="H15">
+        <v>107066023</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="5">
+        <v>416183487820</v>
+      </c>
+      <c r="H16">
+        <v>107077025</v>
+      </c>
+      <c r="I16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4">
-        <v>23535344</v>
-      </c>
-      <c r="H9" s="4">
-        <v>107088018</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="4">
-        <v>12345678</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="4">
-        <v>67334325</v>
-      </c>
-      <c r="H11" s="4">
-        <v>107022020</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="4">
-        <v>72846835</v>
-      </c>
-      <c r="H12" s="4">
-        <v>107033021</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="4">
-        <v>35465432</v>
-      </c>
-      <c r="H13" s="4">
-        <v>107044022</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="4">
-        <v>13532750</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="4">
-        <v>35325690</v>
-      </c>
-      <c r="H15" s="4">
-        <v>107066023</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="4">
-        <v>35245352</v>
-      </c>
-      <c r="H16" s="4">
-        <v>107077025</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="4">
-        <v>23790344</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="5">
+        <v>673919918723</v>
+      </c>
+      <c r="H17">
         <v>107088035</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>17</v>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1787,343 +1784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E65995-82F9-4470-BB1A-A37DA988E30A}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>131</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>107022012</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4">
-        <v>139</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4">
-        <v>107033013</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
-        <v>107044014</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4">
-        <v>107066016</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4">
-        <v>107077017</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4">
-        <v>107088018</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4">
-        <v>107022020</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4">
-        <v>107033021</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4">
-        <v>107044022</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="4">
-        <v>107066023</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="4">
-        <v>107077025</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="4">
-        <v>107088035</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,39 +1797,40 @@
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2172,13 +1838,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>358619375</v>
       </c>
-      <c r="E2">
-        <v>12345678</v>
+      <c r="E2" s="5">
+        <v>938361110233</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2187,7 +1853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2195,91 +1861,91 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>358619376</v>
       </c>
-      <c r="E3">
-        <v>67234325</v>
+      <c r="E3" s="5">
+        <v>686251751302</v>
       </c>
       <c r="F3">
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
       </c>
       <c r="D4">
         <v>358619377</v>
       </c>
-      <c r="E4">
-        <v>72846835</v>
+      <c r="E4" s="5">
+        <v>112069168513</v>
       </c>
       <c r="F4">
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <v>358619378</v>
       </c>
-      <c r="E5">
-        <v>35435432</v>
+      <c r="E5" s="5">
+        <v>411677269452</v>
       </c>
       <c r="F5">
         <v>107044014</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D6">
         <v>358619379</v>
       </c>
-      <c r="E6">
-        <v>13532664</v>
+      <c r="E6" s="5">
+        <v>149379069643</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -2288,99 +1954,99 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>358619380</v>
       </c>
-      <c r="E7">
-        <v>35325677</v>
+      <c r="E7" s="5">
+        <v>420799467499</v>
       </c>
       <c r="F7">
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>358619381</v>
       </c>
-      <c r="E8">
-        <v>35245234</v>
+      <c r="E8" s="5">
+        <v>475793365124</v>
       </c>
       <c r="F8">
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>358619382</v>
       </c>
-      <c r="E9">
-        <v>23535344</v>
+      <c r="E9" s="5">
+        <v>270432965116</v>
       </c>
       <c r="F9">
         <v>107088018</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>358619383</v>
       </c>
-      <c r="E10">
-        <v>12345678</v>
+      <c r="E10" s="5">
+        <v>572786363529</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -2389,99 +2055,100 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <v>358619384</v>
       </c>
-      <c r="E11">
-        <v>67334325</v>
+      <c r="E11" s="5">
+        <v>722274884150</v>
       </c>
       <c r="F11">
         <v>107022020</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12">
         <v>358619385</v>
       </c>
-      <c r="E12">
-        <v>72846835</v>
+      <c r="E12" s="5">
+        <v>475544881837</v>
       </c>
       <c r="F12">
         <v>107033021</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>358619386</v>
       </c>
-      <c r="E13">
-        <v>35465432</v>
+      <c r="E13" s="5">
+        <v>667099622731</v>
       </c>
       <c r="F13">
         <v>107044022</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14">
         <v>358619387</v>
       </c>
-      <c r="E14">
-        <v>13532750</v>
+      <c r="E14" s="5">
+        <v>508720153385</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -2489,86 +2156,91 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D15">
         <v>358619388</v>
       </c>
-      <c r="E15">
-        <v>35325690</v>
+      <c r="E15" s="5">
+        <v>398287229537</v>
       </c>
       <c r="F15">
         <v>107066023</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16">
         <v>358619389</v>
       </c>
-      <c r="E16">
-        <v>35245352</v>
+      <c r="E16" s="5">
+        <v>416183487820</v>
       </c>
       <c r="F16">
         <v>107077025</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>358619390</v>
       </c>
-      <c r="E17">
-        <v>23790344</v>
+      <c r="E17" s="5">
+        <v>673919918723</v>
       </c>
       <c r="F17">
         <v>107088035</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D4229E-B8A3-4976-9A6A-A154A5D86A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD268726-CDFC-4FCE-882A-F81745E3F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="2" r:id="rId1"/>
@@ -871,7 +871,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -882,9 +882,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1230,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775A06F9-4751-4926-A207-2E152BB56E20}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1785,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E2:E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1801,6 +1798,7 @@
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1840,8 +1838,8 @@
       <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="D2">
-        <v>358619375</v>
+      <c r="D2" s="5">
+        <v>9658929078.2604904</v>
       </c>
       <c r="E2" s="5">
         <v>938361110233</v>
@@ -1863,8 +1861,8 @@
       <c r="C3" t="s">
         <v>96</v>
       </c>
-      <c r="D3">
-        <v>358619376</v>
+      <c r="D3" s="5">
+        <v>9117442255.3085957</v>
       </c>
       <c r="E3" s="5">
         <v>686251751302</v>
@@ -1889,8 +1887,8 @@
       <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4">
-        <v>358619377</v>
+      <c r="D4" s="5">
+        <v>7214690901.6085672</v>
       </c>
       <c r="E4" s="5">
         <v>112069168513</v>
@@ -1915,8 +1913,8 @@
       <c r="C5" t="s">
         <v>98</v>
       </c>
-      <c r="D5">
-        <v>358619378</v>
+      <c r="D5" s="5">
+        <v>2891054101.3693953</v>
       </c>
       <c r="E5" s="5">
         <v>411677269452</v>
@@ -1941,8 +1939,8 @@
       <c r="C6" t="s">
         <v>99</v>
       </c>
-      <c r="D6">
-        <v>358619379</v>
+      <c r="D6" s="5">
+        <v>2414915888.0768123</v>
       </c>
       <c r="E6" s="5">
         <v>149379069643</v>
@@ -1964,8 +1962,8 @@
       <c r="C7" t="s">
         <v>100</v>
       </c>
-      <c r="D7">
-        <v>358619380</v>
+      <c r="D7" s="5">
+        <v>9947205369.4541473</v>
       </c>
       <c r="E7" s="5">
         <v>420799467499</v>
@@ -1990,8 +1988,8 @@
       <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="D8">
-        <v>358619381</v>
+      <c r="D8" s="5">
+        <v>9157920828.7761917</v>
       </c>
       <c r="E8" s="5">
         <v>475793365124</v>
@@ -2016,8 +2014,8 @@
       <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9">
-        <v>358619382</v>
+      <c r="D9" s="5">
+        <v>7852737331.0653505</v>
       </c>
       <c r="E9" s="5">
         <v>270432965116</v>
@@ -2042,8 +2040,8 @@
       <c r="C10" t="s">
         <v>103</v>
       </c>
-      <c r="D10">
-        <v>358619383</v>
+      <c r="D10" s="5">
+        <v>3706909160.5433831</v>
       </c>
       <c r="E10" s="5">
         <v>572786363529</v>
@@ -2065,8 +2063,8 @@
       <c r="C11" t="s">
         <v>104</v>
       </c>
-      <c r="D11">
-        <v>358619384</v>
+      <c r="D11" s="5">
+        <v>7073014211.2344437</v>
       </c>
       <c r="E11" s="5">
         <v>722274884150</v>
@@ -2091,8 +2089,8 @@
       <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="D12">
-        <v>358619385</v>
+      <c r="D12" s="5">
+        <v>9444072786.5621071</v>
       </c>
       <c r="E12" s="5">
         <v>475544881837</v>
@@ -2117,8 +2115,8 @@
       <c r="C13" t="s">
         <v>106</v>
       </c>
-      <c r="D13">
-        <v>358619386</v>
+      <c r="D13" s="5">
+        <v>8763748859.3253937</v>
       </c>
       <c r="E13" s="5">
         <v>667099622731</v>
@@ -2144,8 +2142,8 @@
       <c r="C14" t="s">
         <v>107</v>
       </c>
-      <c r="D14">
-        <v>358619387</v>
+      <c r="D14" s="5">
+        <v>9554254181.0988884</v>
       </c>
       <c r="E14" s="5">
         <v>508720153385</v>
@@ -2156,7 +2154,7 @@
       <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2168,8 +2166,8 @@
       <c r="C15" t="s">
         <v>108</v>
       </c>
-      <c r="D15">
-        <v>358619388</v>
+      <c r="D15" s="5">
+        <v>1711595057.8084612</v>
       </c>
       <c r="E15" s="5">
         <v>398287229537</v>
@@ -2195,8 +2193,8 @@
       <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="D16">
-        <v>358619389</v>
+      <c r="D16" s="5">
+        <v>2194556147.5332499</v>
       </c>
       <c r="E16" s="5">
         <v>416183487820</v>
@@ -2222,8 +2220,8 @@
       <c r="C17" t="s">
         <v>110</v>
       </c>
-      <c r="D17">
-        <v>358619390</v>
+      <c r="D17" s="5">
+        <v>3249069828.5320644</v>
       </c>
       <c r="E17" s="5">
         <v>673919918723</v>
@@ -2238,6 +2236,72 @@
         <v>16</v>
       </c>
       <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD268726-CDFC-4FCE-882A-F81745E3F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="2" r:id="rId1"/>
     <sheet name="filtered_data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
   <si>
     <t>Customer Code</t>
   </si>
@@ -53,9 +52,6 @@
     <t>Phạm Quốc Bảo</t>
   </si>
   <si>
-    <t>19_Hoang Quoc Viet_Nghia Do_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
@@ -68,9 +64,6 @@
     <t>Đỗ Việt Anh</t>
   </si>
   <si>
-    <t>22 Nguyen Khanh Toan_Quan Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
@@ -80,18 +73,12 @@
     <t>Nguyễn Đình Chi</t>
   </si>
   <si>
-    <t>10 Tran Thai Tong_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008875</t>
   </si>
   <si>
     <t>Nguyễn Trọng Đức</t>
   </si>
   <si>
-    <t>5 Nguyen Phong Sac_Dich Vong_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -101,27 +88,18 @@
     <t>Lê Tuấn Huy</t>
   </si>
   <si>
-    <t>27 Nguyen Van Huyen_Trung Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008877</t>
   </si>
   <si>
     <t>Đỗ Tiến Đạt</t>
   </si>
   <si>
-    <t>17 Hoang Minh Giam_Trung Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008878</t>
   </si>
   <si>
     <t>Nguyễn Vũ Việt Hoàng</t>
   </si>
   <si>
-    <t>20 Pham Tuan Tai_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008879</t>
   </si>
   <si>
@@ -134,9 +112,6 @@
     <t>Đinh Huy Hoàng</t>
   </si>
   <si>
-    <t>20_Hoang Quoc Viet_Nghia Do_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008881</t>
   </si>
   <si>
@@ -161,15 +136,9 @@
     <t>Nguyễn Nhật Anh</t>
   </si>
   <si>
-    <t>30 Nguyen Van Huyen_Trung Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>CH001203008885</t>
   </si>
   <si>
-    <t>Nguyen Hoang Nam</t>
-  </si>
-  <si>
     <t>CH001203008886</t>
   </si>
   <si>
@@ -230,9 +199,6 @@
     <t>hoangnguyenvuviet@gmail.com</t>
   </si>
   <si>
-    <t>45 Nguyen Khang_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>0358619382</t>
   </si>
   <si>
@@ -245,9 +211,6 @@
     <t>hoangdinhhuy@gmail.com</t>
   </si>
   <si>
-    <t>19 Nguyen Khanh Toan_Quan Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>0358619384</t>
   </si>
   <si>
@@ -260,9 +223,6 @@
     <t>sinhdodo@gmail.com</t>
   </si>
   <si>
-    <t>8 Nguyen Phong Sac_Dich Vong_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>0358619386</t>
   </si>
   <si>
@@ -275,39 +235,24 @@
     <t>anhnguyennhat@gmail.com</t>
   </si>
   <si>
-    <t>3 Hoang Minh Giam_Trung Hoa_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>0358619388</t>
   </si>
   <si>
     <t>namnguyenhoang@gmail.com</t>
   </si>
   <si>
-    <t>10 Pham Tuan Tai_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>0358619389</t>
   </si>
   <si>
     <t>duchmhoang@gmail.com</t>
   </si>
   <si>
-    <t>27 Nguyen Khang_Dich Vong Hau_Cau Giay_Ha Noi</t>
-  </si>
-  <si>
     <t>0358619390</t>
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
   </si>
   <si>
-    <t>Administrative offices</t>
-  </si>
-  <si>
-    <t>Manufacturing industries</t>
-  </si>
-  <si>
     <t>19, Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
   </si>
   <si>
@@ -332,9 +277,6 @@
     <t>7 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
   </si>
   <si>
-    <t>20, Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
     <t>25 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
   </si>
   <si>
@@ -354,12 +296,45 @@
   </si>
   <si>
     <t>8 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>45 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>19 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>8 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>3 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>10 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>27 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>19 Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nam</t>
+  </si>
+  <si>
+    <t>Manufacturing industry</t>
+  </si>
+  <si>
+    <t>Administrative office</t>
+  </si>
+  <si>
+    <t>20 Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1224,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775A06F9-4751-4926-A207-2E152BB56E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1283,45 +1258,45 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G2" s="5">
         <v>938361110233</v>
       </c>
       <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G3" s="5">
         <v>686251751302</v>
@@ -1330,30 +1305,30 @@
         <v>107022012</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G4" s="5">
         <v>112069168513</v>
@@ -1362,30 +1337,30 @@
         <v>107033013</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5">
         <v>411677269452</v>
@@ -1394,59 +1369,59 @@
         <v>107044014</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G6" s="5">
         <v>149379069643</v>
       </c>
       <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
         <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5">
         <v>420799467499</v>
@@ -1455,30 +1430,30 @@
         <v>107066016</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G8" s="5">
         <v>475793365124</v>
@@ -1487,30 +1462,30 @@
         <v>107077017</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G9" s="5">
         <v>270432965116</v>
@@ -1519,59 +1494,59 @@
         <v>107088018</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G10" s="5">
         <v>572786363529</v>
       </c>
       <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G11" s="5">
         <v>722274884150</v>
@@ -1580,30 +1555,30 @@
         <v>107022020</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G12" s="5">
         <v>475544881837</v>
@@ -1612,30 +1587,30 @@
         <v>107033021</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G13" s="5">
         <v>667099622731</v>
@@ -1644,59 +1619,59 @@
         <v>107044022</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5">
         <v>508720153385</v>
       </c>
       <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
         <v>11</v>
-      </c>
-      <c r="J14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G15" s="5">
         <v>398287229537</v>
@@ -1705,30 +1680,30 @@
         <v>107066023</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G16" s="5">
         <v>416183487820</v>
@@ -1737,30 +1712,30 @@
         <v>107077025</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G17" s="5">
         <v>673919918723</v>
@@ -1769,10 +1744,10 @@
         <v>107088035</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1781,11 +1756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,33 +1811,33 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9658929078.2604904</v>
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E2" s="5">
         <v>938361110233</v>
       </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="5">
-        <v>9117442255.3085957</v>
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="5">
         <v>686251751302</v>
@@ -1871,24 +1846,24 @@
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="5">
-        <v>7214690901.6085672</v>
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="5">
         <v>112069168513</v>
@@ -1897,24 +1872,24 @@
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2891054101.3693953</v>
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="5">
         <v>411677269452</v>
@@ -1923,47 +1898,47 @@
         <v>107044014</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2414915888.0768123</v>
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="5">
         <v>149379069643</v>
       </c>
       <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="5">
-        <v>9947205369.4541473</v>
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="5">
         <v>420799467499</v>
@@ -1972,24 +1947,24 @@
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="5">
-        <v>9157920828.7761917</v>
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="5">
         <v>475793365124</v>
@@ -1998,24 +1973,24 @@
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7852737331.0653505</v>
+        <v>84</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="5">
         <v>270432965116</v>
@@ -2024,47 +1999,47 @@
         <v>107088018</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3706909160.5433831</v>
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="5">
         <v>572786363529</v>
       </c>
       <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="5">
-        <v>7073014211.2344437</v>
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="5">
         <v>722274884150</v>
@@ -2073,24 +2048,24 @@
         <v>107022020</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="5">
-        <v>9444072786.5621071</v>
+        <v>86</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="5">
         <v>475544881837</v>
@@ -2099,24 +2074,24 @@
         <v>107033021</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="5">
-        <v>8763748859.3253937</v>
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E13" s="5">
         <v>667099622731</v>
@@ -2125,49 +2100,49 @@
         <v>107044022</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="5">
-        <v>9554254181.0988884</v>
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="5">
         <v>508720153385</v>
       </c>
       <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
       </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1711595057.8084612</v>
+        <v>89</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="5">
         <v>398287229537</v>
@@ -2176,25 +2151,25 @@
         <v>107066023</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2194556147.5332499</v>
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E16" s="5">
         <v>416183487820</v>
@@ -2203,25 +2178,25 @@
         <v>107077025</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3249069828.5320644</v>
+        <v>91</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E17" s="5">
         <v>673919918723</v>
@@ -2230,10 +2205,10 @@
         <v>107088035</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" s="5"/>
     </row>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Customer Code</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>19, Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
   </si>
   <si>
     <t>22 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
@@ -1258,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>45</v>
@@ -1287,10 +1284,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>47</v>
@@ -1305,7 +1302,7 @@
         <v>107022012</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1319,10 +1316,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -1337,7 +1334,7 @@
         <v>107033013</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -1351,10 +1348,10 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
@@ -1383,10 +1380,10 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>53</v>
@@ -1412,10 +1409,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>55</v>
@@ -1430,7 +1427,7 @@
         <v>107066016</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -1444,10 +1441,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>57</v>
@@ -1462,7 +1459,7 @@
         <v>107077017</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -1476,10 +1473,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>59</v>
@@ -1508,10 +1505,10 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>61</v>
@@ -1537,10 +1534,10 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>63</v>
@@ -1555,7 +1552,7 @@
         <v>107022020</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1569,10 +1566,10 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>65</v>
@@ -1587,7 +1584,7 @@
         <v>107033021</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -1601,10 +1598,10 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>67</v>
@@ -1633,10 +1630,10 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>69</v>
@@ -1659,13 +1656,13 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>71</v>
@@ -1680,7 +1677,7 @@
         <v>107066023</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1694,10 +1691,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>73</v>
@@ -1712,7 +1709,7 @@
         <v>107077025</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -1726,10 +1723,10 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>75</v>
@@ -1760,7 +1757,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1811,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>45</v>
@@ -1834,7 +1831,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -1846,7 +1843,7 @@
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1860,7 +1857,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
@@ -1872,7 +1869,7 @@
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1886,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>51</v>
@@ -1912,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>53</v>
@@ -1935,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>55</v>
@@ -1947,7 +1944,7 @@
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1961,7 +1958,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>57</v>
@@ -1973,7 +1970,7 @@
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -1987,7 +1984,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>59</v>
@@ -2013,7 +2010,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>61</v>
@@ -2036,7 +2033,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>63</v>
@@ -2048,7 +2045,7 @@
         <v>107022020</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -2062,7 +2059,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>65</v>
@@ -2074,7 +2071,7 @@
         <v>107033021</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -2088,7 +2085,7 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>67</v>
@@ -2115,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>69</v>
@@ -2136,10 +2133,10 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
@@ -2151,7 +2148,7 @@
         <v>107066023</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -2166,7 +2163,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>73</v>
@@ -2178,7 +2175,7 @@
         <v>107077025</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -2193,7 +2190,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>75</v>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
   <si>
     <t>Customer Code</t>
   </si>
@@ -326,13 +326,25 @@
   </si>
   <si>
     <t>20 Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>CH001203008888</t>
+  </si>
+  <si>
+    <t>9 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>Nhat Anh</t>
+  </si>
+  <si>
+    <t>0129903203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +483,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1757,7 +1775,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,6 +2228,27 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="5">
+        <v>111111111111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2276,6 +2315,7 @@
       <c r="D36" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD819C9F-3497-4948-8172-85E6094AD39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9550FF1-45AD-49CC-B928-BF5F43B993B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="111">
   <si>
     <t>Customer Code</t>
   </si>
@@ -279,6 +279,33 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>CH5271462532</t>
+  </si>
+  <si>
+    <t>Nhat Anh</t>
+  </si>
+  <si>
+    <t>13 Am dao</t>
+  </si>
+  <si>
+    <t>13 am phu</t>
+  </si>
+  <si>
+    <t>0129903203</t>
+  </si>
+  <si>
+    <t>anhnn@gmail.com</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HouseHold</t>
   </si>
   <si>
     <t>0358619375</t>
@@ -696,14 +723,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E2:E17"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -753,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -782,7 +810,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -814,7 +842,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -846,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -878,7 +906,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -907,7 +935,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -939,7 +967,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -971,7 +999,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1003,7 +1031,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1032,7 +1060,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -1064,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
@@ -1096,7 +1124,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1128,7 +1156,7 @@
         <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -1157,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -1189,7 +1217,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1221,7 +1249,7 @@
         <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1239,24 +1267,57 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D2:D17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1295,11 +1356,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2">
-        <v>938361110233</v>
+      <c r="D2">
+        <v>358619375</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1318,11 +1379,11 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3">
-        <v>686251751302</v>
+      <c r="D3">
+        <v>358619376</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="F3">
         <v>107022012</v>
@@ -1344,11 +1405,11 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4">
-        <v>112069168513</v>
+      <c r="D4">
+        <v>358619377</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F4">
         <v>107033013</v>
@@ -1370,11 +1431,11 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5">
-        <v>411677269452</v>
+      <c r="D5">
+        <v>358619378</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F5">
         <v>107044014</v>
@@ -1396,11 +1457,11 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6">
-        <v>149379069643</v>
+      <c r="D6">
+        <v>358619379</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1419,11 +1480,11 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7">
-        <v>420799467499</v>
+      <c r="D7">
+        <v>358619380</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F7">
         <v>107066016</v>
@@ -1445,11 +1506,11 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8">
-        <v>475793365124</v>
+      <c r="D8">
+        <v>358619381</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F8">
         <v>107077017</v>
@@ -1471,11 +1532,11 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9">
-        <v>270432965116</v>
+      <c r="D9">
+        <v>358619382</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F9">
         <v>107088018</v>
@@ -1497,11 +1558,11 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10">
-        <v>572786363529</v>
+      <c r="D10">
+        <v>358619383</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1520,11 +1581,11 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11">
-        <v>722274884150</v>
+      <c r="D11">
+        <v>358619384</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F11">
         <v>107022020</v>
@@ -1546,11 +1607,11 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12">
-        <v>475544881837</v>
+      <c r="D12">
+        <v>358619385</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F12">
         <v>107033021</v>
@@ -1572,11 +1633,11 @@
       <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13">
-        <v>667099622731</v>
+      <c r="D13">
+        <v>358619386</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F13">
         <v>107044022</v>
@@ -1598,11 +1659,11 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14">
-        <v>508720153385</v>
+      <c r="D14">
+        <v>358619387</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1621,11 +1682,11 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15">
-        <v>398287229537</v>
+      <c r="D15">
+        <v>358619388</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="F15">
         <v>107066023</v>
@@ -1647,11 +1708,11 @@
       <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>416183487820</v>
+      <c r="D16">
+        <v>358619389</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F16">
         <v>107077025</v>
@@ -1673,11 +1734,11 @@
       <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17">
-        <v>673919918723</v>
+      <c r="D17">
+        <v>358619390</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F17">
         <v>107088035</v>
@@ -1689,9 +1750,33 @@
         <v>21</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9550FF1-45AD-49CC-B928-BF5F43B993B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70034B-1B06-4E6E-8619-A40978D45F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,12 +415,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,13 +727,14 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -786,7 +788,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>938361110233</v>
       </c>
       <c r="I2" t="s">
@@ -815,7 +817,7 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>686251751302</v>
       </c>
       <c r="H3">
@@ -847,7 +849,7 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>112069168513</v>
       </c>
       <c r="H4">
@@ -879,7 +881,7 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>411677269452</v>
       </c>
       <c r="H5">
@@ -911,7 +913,7 @@
       <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>149379069643</v>
       </c>
       <c r="I6" t="s">
@@ -940,7 +942,7 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>420799467499</v>
       </c>
       <c r="H7">
@@ -972,7 +974,7 @@
       <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>475793365124</v>
       </c>
       <c r="H8">
@@ -1004,7 +1006,7 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>270432965116</v>
       </c>
       <c r="H9">
@@ -1036,7 +1038,7 @@
       <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>572786363529</v>
       </c>
       <c r="I10" t="s">
@@ -1065,7 +1067,7 @@
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>722274884150</v>
       </c>
       <c r="H11">
@@ -1097,7 +1099,7 @@
       <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>475544881837</v>
       </c>
       <c r="H12">
@@ -1129,7 +1131,7 @@
       <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>667099622731</v>
       </c>
       <c r="H13">
@@ -1161,7 +1163,7 @@
       <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>508720153385</v>
       </c>
       <c r="I14" t="s">
@@ -1190,7 +1192,7 @@
       <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>398287229537</v>
       </c>
       <c r="H15">
@@ -1222,7 +1224,7 @@
       <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>416183487820</v>
       </c>
       <c r="H16">
@@ -1254,7 +1256,7 @@
       <c r="F17" t="s">
         <v>85</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>673919918723</v>
       </c>
       <c r="H17">
@@ -1311,13 +1313,15 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1356,11 +1360,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>358619375</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="E2" s="3">
+        <v>938361110233</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1379,11 +1383,11 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
-        <v>358619376</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="E3" s="3">
+        <v>686251751302</v>
       </c>
       <c r="F3">
         <v>107022012</v>
@@ -1405,11 +1409,11 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>358619377</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="E4" s="3">
+        <v>112069168513</v>
       </c>
       <c r="F4">
         <v>107033013</v>
@@ -1431,11 +1435,11 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5">
-        <v>358619378</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="E5" s="3">
+        <v>411677269452</v>
       </c>
       <c r="F5">
         <v>107044014</v>
@@ -1457,11 +1461,11 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>358619379</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>149379069643</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1480,11 +1484,11 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7">
-        <v>358619380</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>420799467499</v>
       </c>
       <c r="F7">
         <v>107066016</v>
@@ -1506,11 +1510,11 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8">
-        <v>358619381</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475793365124</v>
       </c>
       <c r="F8">
         <v>107077017</v>
@@ -1532,11 +1536,11 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9">
-        <v>358619382</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="E9" s="3">
+        <v>270432965116</v>
       </c>
       <c r="F9">
         <v>107088018</v>
@@ -1558,11 +1562,11 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10">
-        <v>358619383</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="E10" s="3">
+        <v>572786363529</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1581,11 +1585,11 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11">
-        <v>358619384</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>104</v>
+      </c>
+      <c r="E11" s="3">
+        <v>722274884150</v>
       </c>
       <c r="F11">
         <v>107022020</v>
@@ -1607,11 +1611,11 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12">
-        <v>358619385</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="E12" s="3">
+        <v>475544881837</v>
       </c>
       <c r="F12">
         <v>107033021</v>
@@ -1633,11 +1637,11 @@
       <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13">
-        <v>358619386</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>667099622731</v>
       </c>
       <c r="F13">
         <v>107044022</v>
@@ -1659,11 +1663,11 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14">
-        <v>358619387</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="E14" s="3">
+        <v>508720153385</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1682,11 +1686,11 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15">
-        <v>358619388</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="E15" s="3">
+        <v>398287229537</v>
       </c>
       <c r="F15">
         <v>107066023</v>
@@ -1708,11 +1712,11 @@
       <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16">
-        <v>358619389</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="E16" s="3">
+        <v>416183487820</v>
       </c>
       <c r="F16">
         <v>107077025</v>
@@ -1734,11 +1738,11 @@
       <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17">
-        <v>358619390</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>110</v>
+      </c>
+      <c r="E17" s="3">
+        <v>673919918723</v>
       </c>
       <c r="F17">
         <v>107088035</v>
@@ -1778,5 +1782,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70034B-1B06-4E6E-8619-A40978D45F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CCE286-D83F-4348-88F7-F999283B17F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Customer Code</t>
   </si>
@@ -279,33 +279,6 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>CH5271462532</t>
-  </si>
-  <si>
-    <t>Nhat Anh</t>
-  </si>
-  <si>
-    <t>13 Am dao</t>
-  </si>
-  <si>
-    <t>13 am phu</t>
-  </si>
-  <si>
-    <t>0129903203</t>
-  </si>
-  <si>
-    <t>anhnn@gmail.com</t>
-  </si>
-  <si>
-    <t>111111111111</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>HouseHold</t>
   </si>
   <si>
     <t>0358619375</t>
@@ -724,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,6 +708,7 @@
     <col min="4" max="4" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -783,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -812,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -844,7 +818,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -876,7 +850,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -908,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
@@ -937,7 +911,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -969,7 +943,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
@@ -1001,7 +975,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1033,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1062,7 +1036,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -1094,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
@@ -1126,7 +1100,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
@@ -1158,7 +1132,7 @@
         <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
@@ -1187,7 +1161,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -1219,7 +1193,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
@@ -1251,7 +1225,7 @@
         <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
@@ -1267,38 +1241,6 @@
       </c>
       <c r="J17" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1310,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3">
         <v>938361110233</v>
@@ -1384,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E3" s="3">
         <v>686251751302</v>
@@ -1410,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3">
         <v>112069168513</v>
@@ -1436,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3">
         <v>411677269452</v>
@@ -1462,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3">
         <v>149379069643</v>
@@ -1485,7 +1427,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E7" s="3">
         <v>420799467499</v>
@@ -1511,7 +1453,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>475793365124</v>
@@ -1537,7 +1479,7 @@
         <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3">
         <v>270432965116</v>
@@ -1563,7 +1505,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3">
         <v>572786363529</v>
@@ -1586,7 +1528,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3">
         <v>722274884150</v>
@@ -1612,7 +1554,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3">
         <v>475544881837</v>
@@ -1638,7 +1580,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3">
         <v>667099622731</v>
@@ -1664,7 +1606,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3">
         <v>508720153385</v>
@@ -1687,7 +1629,7 @@
         <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3">
         <v>398287229537</v>
@@ -1713,7 +1655,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E16" s="3">
         <v>416183487820</v>
@@ -1739,7 +1681,7 @@
         <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E17" s="3">
         <v>673919918723</v>
@@ -1752,32 +1694,6 @@
       </c>
       <c r="H17" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CCE286-D83F-4348-88F7-F999283B17F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEA30C-FC55-4C92-AF7D-99926D28A365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
   <si>
     <t>Customer Code</t>
   </si>
@@ -65,7 +65,7 @@
     <t>quocbaopham@gmail.com</t>
   </si>
   <si>
-    <t>Household</t>
+    <t>HouseHold</t>
   </si>
   <si>
     <t>Active</t>
@@ -83,7 +83,7 @@
     <t>vietanhdo@gmail.com</t>
   </si>
   <si>
-    <t>Manufacturing industry</t>
+    <t>Manufacturing Industries</t>
   </si>
   <si>
     <t>Inactive</t>
@@ -101,7 +101,7 @@
     <t>dinhnguyenchi@gmail.com</t>
   </si>
   <si>
-    <t>Administrative office</t>
+    <t>Administrative Offices</t>
   </si>
   <si>
     <t>CH001203008875</t>
@@ -279,61 +279,13 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>0358619375</t>
-  </si>
-  <si>
-    <t>0358619376</t>
-  </si>
-  <si>
-    <t>0358619377</t>
-  </si>
-  <si>
-    <t>0358619378</t>
-  </si>
-  <si>
-    <t>0358619379</t>
-  </si>
-  <si>
-    <t>0358619380</t>
-  </si>
-  <si>
-    <t>0358619381</t>
-  </si>
-  <si>
-    <t>0358619382</t>
-  </si>
-  <si>
-    <t>0358619383</t>
-  </si>
-  <si>
-    <t>0358619384</t>
-  </si>
-  <si>
-    <t>0358619385</t>
-  </si>
-  <si>
-    <t>0358619386</t>
-  </si>
-  <si>
-    <t>0358619387</t>
-  </si>
-  <si>
-    <t>0358619388</t>
-  </si>
-  <si>
-    <t>0358619389</t>
-  </si>
-  <si>
-    <t>0358619390</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,12 +297,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,13 +334,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,17 +643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -756,13 +694,13 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>86</v>
+      <c r="E2">
+        <v>358619375</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>938361110233</v>
       </c>
       <c r="I2" t="s">
@@ -785,13 +723,13 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
+      <c r="E3">
+        <v>358619376</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>686251751302</v>
       </c>
       <c r="H3">
@@ -817,13 +755,13 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>88</v>
+      <c r="E4">
+        <v>358619377</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>112069168513</v>
       </c>
       <c r="H4">
@@ -849,13 +787,13 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
+      <c r="E5">
+        <v>358619378</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>411677269452</v>
       </c>
       <c r="H5">
@@ -881,13 +819,13 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>90</v>
+      <c r="E6">
+        <v>358619379</v>
       </c>
       <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>149379069643</v>
       </c>
       <c r="I6" t="s">
@@ -910,13 +848,13 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>91</v>
+      <c r="E7">
+        <v>358619380</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>420799467499</v>
       </c>
       <c r="H7">
@@ -942,13 +880,13 @@
       <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>92</v>
+      <c r="E8">
+        <v>358619381</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>475793365124</v>
       </c>
       <c r="H8">
@@ -974,13 +912,13 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>93</v>
+      <c r="E9">
+        <v>358619382</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9">
         <v>270432965116</v>
       </c>
       <c r="H9">
@@ -1006,13 +944,13 @@
       <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>94</v>
+      <c r="E10">
+        <v>358619383</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>572786363529</v>
       </c>
       <c r="I10" t="s">
@@ -1035,13 +973,13 @@
       <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>95</v>
+      <c r="E11">
+        <v>358619384</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>722274884150</v>
       </c>
       <c r="H11">
@@ -1067,13 +1005,13 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>96</v>
+      <c r="E12">
+        <v>358619385</v>
       </c>
       <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>475544881837</v>
       </c>
       <c r="H12">
@@ -1099,13 +1037,13 @@
       <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>97</v>
+      <c r="E13">
+        <v>358619386</v>
       </c>
       <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>667099622731</v>
       </c>
       <c r="H13">
@@ -1131,13 +1069,13 @@
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>98</v>
+      <c r="E14">
+        <v>358619387</v>
       </c>
       <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>508720153385</v>
       </c>
       <c r="I14" t="s">
@@ -1160,13 +1098,13 @@
       <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>99</v>
+      <c r="E15">
+        <v>358619388</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>398287229537</v>
       </c>
       <c r="H15">
@@ -1192,13 +1130,13 @@
       <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>100</v>
+      <c r="E16">
+        <v>358619389</v>
       </c>
       <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>416183487820</v>
       </c>
       <c r="H16">
@@ -1224,13 +1162,13 @@
       <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
+      <c r="E17">
+        <v>358619390</v>
       </c>
       <c r="F17" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>673919918723</v>
       </c>
       <c r="H17">
@@ -1244,9 +1182,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1254,17 +1190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1302,10 +1232,10 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2">
+        <v>358619375</v>
+      </c>
+      <c r="E2">
         <v>938361110233</v>
       </c>
       <c r="G2" t="s">
@@ -1325,10 +1255,10 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3">
+        <v>358619376</v>
+      </c>
+      <c r="E3">
         <v>686251751302</v>
       </c>
       <c r="F3">
@@ -1351,10 +1281,10 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4">
+        <v>358619377</v>
+      </c>
+      <c r="E4">
         <v>112069168513</v>
       </c>
       <c r="F4">
@@ -1377,10 +1307,10 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>358619378</v>
+      </c>
+      <c r="E5">
         <v>411677269452</v>
       </c>
       <c r="F5">
@@ -1403,10 +1333,10 @@
       <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>358619379</v>
+      </c>
+      <c r="E6">
         <v>149379069643</v>
       </c>
       <c r="G6" t="s">
@@ -1426,10 +1356,10 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>358619380</v>
+      </c>
+      <c r="E7">
         <v>420799467499</v>
       </c>
       <c r="F7">
@@ -1452,10 +1382,10 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>358619381</v>
+      </c>
+      <c r="E8">
         <v>475793365124</v>
       </c>
       <c r="F8">
@@ -1478,10 +1408,10 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>358619382</v>
+      </c>
+      <c r="E9">
         <v>270432965116</v>
       </c>
       <c r="F9">
@@ -1504,10 +1434,10 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10">
+        <v>358619383</v>
+      </c>
+      <c r="E10">
         <v>572786363529</v>
       </c>
       <c r="G10" t="s">
@@ -1527,10 +1457,10 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>358619384</v>
+      </c>
+      <c r="E11">
         <v>722274884150</v>
       </c>
       <c r="F11">
@@ -1553,10 +1483,10 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12">
+        <v>358619385</v>
+      </c>
+      <c r="E12">
         <v>475544881837</v>
       </c>
       <c r="F12">
@@ -1579,10 +1509,10 @@
       <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13">
+        <v>358619386</v>
+      </c>
+      <c r="E13">
         <v>667099622731</v>
       </c>
       <c r="F13">
@@ -1605,10 +1535,10 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14">
+        <v>358619387</v>
+      </c>
+      <c r="E14">
         <v>508720153385</v>
       </c>
       <c r="G14" t="s">
@@ -1628,10 +1558,10 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15">
+        <v>358619388</v>
+      </c>
+      <c r="E15">
         <v>398287229537</v>
       </c>
       <c r="F15">
@@ -1654,10 +1584,10 @@
       <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16">
+        <v>358619389</v>
+      </c>
+      <c r="E16">
         <v>416183487820</v>
       </c>
       <c r="F16">
@@ -1680,10 +1610,10 @@
       <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17">
+        <v>358619390</v>
+      </c>
+      <c r="E17">
         <v>673919918723</v>
       </c>
       <c r="F17">
@@ -1698,6 +1628,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEA30C-FC55-4C92-AF7D-99926D28A365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B81B3-7EE7-4EA7-9F7B-8779C34D8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>quocbaopham@gmail.com</t>
   </si>
   <si>
-    <t>HouseHold</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>vietanhdo@gmail.com</t>
   </si>
   <si>
-    <t>Manufacturing Industries</t>
-  </si>
-  <si>
     <t>Inactive</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>dinhnguyenchi@gmail.com</t>
   </si>
   <si>
-    <t>Administrative Offices</t>
-  </si>
-  <si>
     <t>CH001203008875</t>
   </si>
   <si>
@@ -279,6 +270,15 @@
   </si>
   <si>
     <t>giabachnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Manufacturing industry</t>
+  </si>
+  <si>
+    <t>Administrative office</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A18:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,30 +704,30 @@
         <v>938361110233</v>
       </c>
       <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>358619376</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>686251751302</v>
@@ -736,30 +736,30 @@
         <v>107022012</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>358619377</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>112069168513</v>
@@ -768,30 +768,30 @@
         <v>107033013</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>358619378</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>411677269452</v>
@@ -800,59 +800,59 @@
         <v>107044014</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>358619379</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>149379069643</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>358619380</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>420799467499</v>
@@ -861,30 +861,30 @@
         <v>107066016</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>358619381</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>475793365124</v>
@@ -893,30 +893,30 @@
         <v>107077017</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
       </c>
       <c r="E9">
         <v>358619382</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>270432965116</v>
@@ -925,59 +925,59 @@
         <v>107088018</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>358619383</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>572786363529</v>
       </c>
       <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
       </c>
       <c r="E11">
         <v>358619384</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G11">
         <v>722274884150</v>
@@ -986,30 +986,30 @@
         <v>107022020</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>358619385</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>475544881837</v>
@@ -1018,30 +1018,30 @@
         <v>107033021</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
       </c>
       <c r="E13">
         <v>358619386</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>667099622731</v>
@@ -1050,59 +1050,59 @@
         <v>107044022</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>358619387</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14">
         <v>508720153385</v>
       </c>
       <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
         <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
       </c>
       <c r="E15">
         <v>358619388</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15">
         <v>398287229537</v>
@@ -1111,30 +1111,30 @@
         <v>107066023</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
       </c>
       <c r="E16">
         <v>358619389</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G16">
         <v>416183487820</v>
@@ -1143,30 +1143,30 @@
         <v>107077025</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
       </c>
       <c r="E17">
         <v>358619390</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17">
         <v>673919918723</v>
@@ -1175,10 +1175,10 @@
         <v>107088035</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A18:XFD19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,21 +1239,21 @@
         <v>938361110233</v>
       </c>
       <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>358619376</v>
@@ -1265,21 +1265,21 @@
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>358619377</v>
@@ -1291,21 +1291,21 @@
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>358619378</v>
@@ -1317,21 +1317,21 @@
         <v>107044014</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>358619379</v>
@@ -1340,21 +1340,21 @@
         <v>149379069643</v>
       </c>
       <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>358619380</v>
@@ -1366,21 +1366,21 @@
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>358619381</v>
@@ -1392,21 +1392,21 @@
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>358619382</v>
@@ -1418,21 +1418,21 @@
         <v>107088018</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>358619383</v>
@@ -1441,21 +1441,21 @@
         <v>572786363529</v>
       </c>
       <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>358619384</v>
@@ -1467,21 +1467,21 @@
         <v>107022020</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>358619385</v>
@@ -1493,21 +1493,21 @@
         <v>107033021</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>358619386</v>
@@ -1519,21 +1519,21 @@
         <v>107044022</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>358619387</v>
@@ -1542,21 +1542,21 @@
         <v>508720153385</v>
       </c>
       <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>358619388</v>
@@ -1568,21 +1568,21 @@
         <v>107066023</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>358619389</v>
@@ -1594,21 +1594,21 @@
         <v>107077025</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>358619390</v>
@@ -1620,10 +1620,10 @@
         <v>107088035</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691B81B3-7EE7-4EA7-9F7B-8779C34D8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>Customer Code</t>
   </si>
@@ -279,12 +278,30 @@
   </si>
   <si>
     <t>Administrative office</t>
+  </si>
+  <si>
+    <t>Total consumption</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Late fee amount</t>
+  </si>
+  <si>
+    <t>Total payment amount</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +324,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,13 +347,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -640,16 +671,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +717,29 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -710,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -742,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -774,7 +832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -806,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -835,7 +893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -867,7 +925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -899,7 +957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -931,7 +989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -960,7 +1018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -992,7 +1050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1024,7 +1082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1056,7 +1114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1085,7 +1143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1117,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1187,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
   <si>
     <t>Customer Code</t>
   </si>
@@ -296,6 +296,57 @@
   </si>
   <si>
     <t>Payment Date</t>
+  </si>
+  <si>
+    <t>938361110233</t>
+  </si>
+  <si>
+    <t>0358619375</t>
+  </si>
+  <si>
+    <t>0358619378</t>
+  </si>
+  <si>
+    <t>0358619377</t>
+  </si>
+  <si>
+    <t>0358619376</t>
+  </si>
+  <si>
+    <t>0358619380</t>
+  </si>
+  <si>
+    <t>0358619379</t>
+  </si>
+  <si>
+    <t>0358619381</t>
+  </si>
+  <si>
+    <t>0358619382</t>
+  </si>
+  <si>
+    <t>0358619383</t>
+  </si>
+  <si>
+    <t>0358619384</t>
+  </si>
+  <si>
+    <t>0358619385</t>
+  </si>
+  <si>
+    <t>0358619386</t>
+  </si>
+  <si>
+    <t>0358619387</t>
+  </si>
+  <si>
+    <t>0358619388</t>
+  </si>
+  <si>
+    <t>0358619389</t>
+  </si>
+  <si>
+    <t>0358619390</t>
   </si>
 </sst>
 </file>
@@ -362,12 +413,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -675,11 +734,16 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
@@ -699,13 +763,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -752,14 +816,14 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>358619375</v>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>938361110233</v>
+      <c r="G2" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
@@ -781,13 +845,13 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>358619376</v>
+      <c r="E3" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>686251751302</v>
       </c>
       <c r="H3">
@@ -813,13 +877,13 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>358619377</v>
+      <c r="E4" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>112069168513</v>
       </c>
       <c r="H4">
@@ -845,13 +909,13 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>358619378</v>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>411677269452</v>
       </c>
       <c r="H5">
@@ -877,13 +941,13 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
-        <v>358619379</v>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>149379069643</v>
       </c>
       <c r="I6" t="s">
@@ -906,13 +970,13 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7">
-        <v>358619380</v>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>420799467499</v>
       </c>
       <c r="H7">
@@ -938,13 +1002,13 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
-        <v>358619381</v>
+      <c r="E8" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>475793365124</v>
       </c>
       <c r="H8">
@@ -970,13 +1034,13 @@
       <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="E9">
-        <v>358619382</v>
+      <c r="E9" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>270432965116</v>
       </c>
       <c r="H9">
@@ -1002,13 +1066,13 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10">
-        <v>358619383</v>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>572786363529</v>
       </c>
       <c r="I10" t="s">
@@ -1031,13 +1095,13 @@
       <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E11">
-        <v>358619384</v>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>722274884150</v>
       </c>
       <c r="H11">
@@ -1063,13 +1127,13 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
-        <v>358619385</v>
+      <c r="E12" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>475544881837</v>
       </c>
       <c r="H12">
@@ -1095,13 +1159,13 @@
       <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="E13">
-        <v>358619386</v>
+      <c r="E13" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>667099622731</v>
       </c>
       <c r="H13">
@@ -1127,13 +1191,13 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E14">
-        <v>358619387</v>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>508720153385</v>
       </c>
       <c r="I14" t="s">
@@ -1156,13 +1220,13 @@
       <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="E15">
-        <v>358619388</v>
+      <c r="E15" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>398287229537</v>
       </c>
       <c r="H15">
@@ -1188,13 +1252,13 @@
       <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="E16">
-        <v>358619389</v>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>416183487820</v>
       </c>
       <c r="H16">
@@ -1220,13 +1284,13 @@
       <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="E17">
-        <v>358619390</v>
+      <c r="E17" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="F17" t="s">
         <v>82</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>673919918723</v>
       </c>
       <c r="H17">
@@ -1241,6 +1305,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="110">
   <si>
     <t>Customer Code</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>0358619390</t>
+  </si>
+  <si>
+    <t>Bill Status</t>
   </si>
 </sst>
 </file>
@@ -733,12 +736,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -800,7 +804,7 @@
         <v>91</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="117">
   <si>
     <t>Customer Code</t>
   </si>
@@ -350,6 +350,27 @@
   </si>
   <si>
     <t>Bill Status</t>
+  </si>
+  <si>
+    <t>15/4/2023</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>13/4/2023</t>
+  </si>
+  <si>
+    <t>14/4/2023</t>
+  </si>
+  <si>
+    <t>16/4/2023</t>
+  </si>
+  <si>
+    <t>17/4/2023</t>
   </si>
 </sst>
 </file>
@@ -416,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -432,6 +453,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="152" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +774,7 @@
     <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -835,6 +859,21 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2">
+        <v>909000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -899,6 +938,24 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
+      <c r="K4">
+        <v>700</v>
+      </c>
+      <c r="L4">
+        <v>1862500</v>
+      </c>
+      <c r="M4">
+        <v>186250</v>
+      </c>
+      <c r="N4">
+        <v>2048750</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -960,6 +1017,21 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
+      <c r="K6">
+        <v>350</v>
+      </c>
+      <c r="L6">
+        <v>767300</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1024,6 +1096,21 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
+      <c r="K8">
+        <v>900</v>
+      </c>
+      <c r="L8">
+        <v>2388300</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1085,6 +1172,25 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
+      <c r="K10">
+        <v>332</v>
+      </c>
+      <c r="L10">
+        <v>716288</v>
+      </c>
+      <c r="M10">
+        <v>71629</v>
+      </c>
+      <c r="N10">
+        <v>787917</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1117,6 +1223,8 @@
       <c r="J11" t="s">
         <v>19</v>
       </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1149,6 +1257,21 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
+      <c r="K12">
+        <v>650</v>
+      </c>
+      <c r="L12">
+        <v>1731050</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="7">
+        <v>45264</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1181,6 +1304,8 @@
       <c r="J13" t="s">
         <v>19</v>
       </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1210,6 +1335,25 @@
       <c r="J14" t="s">
         <v>14</v>
       </c>
+      <c r="K14">
+        <v>230</v>
+      </c>
+      <c r="L14">
+        <v>448080</v>
+      </c>
+      <c r="M14">
+        <v>44808</v>
+      </c>
+      <c r="N14">
+        <v>492888</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1242,6 +1386,8 @@
       <c r="J15" t="s">
         <v>19</v>
       </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1274,8 +1420,23 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>600</v>
+      </c>
+      <c r="L16">
+        <v>1599600</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1306,6 +1467,720 @@
       <c r="J17" t="s">
         <v>19</v>
       </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+    </row>
+    <row r="62" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+    </row>
+    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="104" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+    </row>
+    <row r="106" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+    </row>
+    <row r="154" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+    </row>
+    <row r="155" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+    </row>
+    <row r="156" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+    </row>
+    <row r="157" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+    </row>
+    <row r="158" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+    </row>
+    <row r="159" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+    </row>
+    <row r="160" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+    </row>
+    <row r="161" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+    </row>
+    <row r="162" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+    </row>
+    <row r="163" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+    </row>
+    <row r="164" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+    </row>
+    <row r="165" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+    </row>
+    <row r="166" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+    </row>
+    <row r="167" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+    </row>
+    <row r="168" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+    </row>
+    <row r="170" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+    </row>
+    <row r="171" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+    </row>
+    <row r="172" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+    </row>
+    <row r="173" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+    </row>
+    <row r="174" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+    </row>
+    <row r="175" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+    </row>
+    <row r="176" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O176" s="8"/>
+      <c r="P176" s="8"/>
+    </row>
+    <row r="177" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O177" s="8"/>
+      <c r="P177" s="8"/>
+    </row>
+    <row r="178" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O178" s="8"/>
+      <c r="P178" s="8"/>
+    </row>
+    <row r="179" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+    </row>
+    <row r="180" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+    </row>
+    <row r="181" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+    </row>
+    <row r="182" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O183" s="8"/>
+      <c r="P183" s="8"/>
+    </row>
+    <row r="184" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O184" s="8"/>
+      <c r="P184" s="8"/>
+    </row>
+    <row r="185" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+    </row>
+    <row r="187" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+    </row>
+    <row r="188" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+    </row>
+    <row r="189" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O189" s="8"/>
+      <c r="P189" s="8"/>
+    </row>
+    <row r="190" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+    </row>
+    <row r="191" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
+    </row>
+    <row r="192" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O193" s="8"/>
+      <c r="P193" s="8"/>
+    </row>
+    <row r="194" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+    </row>
+    <row r="195" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O195" s="8"/>
+      <c r="P195" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72446C44-4D2F-48A1-BFEC-D4FB11FD2C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="117">
   <si>
     <t>Customer Code</t>
   </si>
@@ -65,229 +64,319 @@
     <t>quocbaopham@gmail.com</t>
   </si>
   <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>CH001203008873</t>
+  </si>
+  <si>
+    <t>Đỗ Việt Anh</t>
+  </si>
+  <si>
+    <t>22 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>vietanhdo@gmail.com</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>CH001203008874</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Chi</t>
+  </si>
+  <si>
+    <t>10 Tran Thai Tong, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>dinhnguyenchi@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008875</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Đức</t>
+  </si>
+  <si>
+    <t>5 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>trongnguyenduc@gmail.com</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>CH001203008876</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Huy</t>
+  </si>
+  <si>
+    <t>27 Nguyen Van Huyen, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>letuanhuy@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008877</t>
+  </si>
+  <si>
+    <t>Đỗ Tiến Đạt</t>
+  </si>
+  <si>
+    <t>17 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>tiennguyendat@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008878</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Việt Hoàng</t>
+  </si>
+  <si>
+    <t>20 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>hoangnguyenvuviet@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008879</t>
+  </si>
+  <si>
+    <t>Lê Tuần Hùng</t>
+  </si>
+  <si>
+    <t>7 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>45 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>letuanhung@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008880</t>
+  </si>
+  <si>
+    <t>Đinh Huy Hoàng</t>
+  </si>
+  <si>
+    <t>20 Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>hoangdinhhuy@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008881</t>
+  </si>
+  <si>
+    <t>Vũ Thu Giang</t>
+  </si>
+  <si>
+    <t>25 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>19 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>thugiangvu@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008882</t>
+  </si>
+  <si>
+    <t>Đỗ Sinh Hùng</t>
+  </si>
+  <si>
+    <t>13 Tran Thai Tong, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>sinhdodo@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008883</t>
+  </si>
+  <si>
+    <t>Võ Trường Giang</t>
+  </si>
+  <si>
+    <t>6 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>8 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>truonggiangvo@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008884</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Anh</t>
+  </si>
+  <si>
+    <t>30 Nguyen Van Huyen, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>anhnguyennhat@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008885</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Nam</t>
+  </si>
+  <si>
+    <t>10 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>3 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>namnguyenhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008886</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Đức</t>
+  </si>
+  <si>
+    <t>23 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>10 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>duchmhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>CH001203008887</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Bách</t>
+  </si>
+  <si>
+    <t>8 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>27 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
+  </si>
+  <si>
+    <t>giabachnguyen@gmail.com</t>
+  </si>
+  <si>
     <t>Household</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>CH001203008873</t>
-  </si>
-  <si>
-    <t>Đỗ Việt Anh</t>
-  </si>
-  <si>
-    <t>22 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>vietanhdo@gmail.com</t>
-  </si>
-  <si>
     <t>Manufacturing industry</t>
   </si>
   <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>CH001203008874</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Chi</t>
-  </si>
-  <si>
-    <t>10 Tran Thai Tong, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>dinhnguyenchi@gmail.com</t>
-  </si>
-  <si>
     <t>Administrative office</t>
   </si>
   <si>
-    <t>CH001203008875</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng Đức</t>
-  </si>
-  <si>
-    <t>5 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>trongnguyenduc@gmail.com</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>CH001203008876</t>
-  </si>
-  <si>
-    <t>Lê Tuấn Huy</t>
-  </si>
-  <si>
-    <t>27 Nguyen Van Huyen, Trung Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>letuanhuy@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008877</t>
-  </si>
-  <si>
-    <t>Đỗ Tiến Đạt</t>
-  </si>
-  <si>
-    <t>17 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>tiennguyendat@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008878</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ Việt Hoàng</t>
-  </si>
-  <si>
-    <t>20 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>hoangnguyenvuviet@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008879</t>
-  </si>
-  <si>
-    <t>Lê Tuần Hùng</t>
-  </si>
-  <si>
-    <t>7 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>45 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>letuanhung@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008880</t>
-  </si>
-  <si>
-    <t>Đinh Huy Hoàng</t>
-  </si>
-  <si>
-    <t>20 Hoang Quoc Viet, Nghia Do, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>hoangdinhhuy@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008881</t>
-  </si>
-  <si>
-    <t>Vũ Thu Giang</t>
-  </si>
-  <si>
-    <t>25 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>19 Nguyen Khanh Toan, Quan Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>thugiangvu@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008882</t>
-  </si>
-  <si>
-    <t>Đỗ Sinh Hùng</t>
-  </si>
-  <si>
-    <t>13 Tran Thai Tong, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>sinhdodo@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008883</t>
-  </si>
-  <si>
-    <t>Võ Trường Giang</t>
-  </si>
-  <si>
-    <t>6 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>8 Nguyen Phong Sac, Dich Vong, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>truonggiangvo@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008884</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Anh</t>
-  </si>
-  <si>
-    <t>30 Nguyen Van Huyen, Trung Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>anhnguyennhat@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008885</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Nam</t>
-  </si>
-  <si>
-    <t>10 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>3 Hoang Minh Giam, Trung Hoa, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>namnguyenhoang@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008886</t>
-  </si>
-  <si>
-    <t>Hoàng Minh Đức</t>
-  </si>
-  <si>
-    <t>23 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>10 Pham Tuan Tai, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>duchmhoang@gmail.com</t>
-  </si>
-  <si>
-    <t>CH001203008887</t>
-  </si>
-  <si>
-    <t>Nguyễn Gia Bách</t>
-  </si>
-  <si>
-    <t>8 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>27 Nguyen Khang, Dich Vong Hau, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>giabachnguyen@gmail.com</t>
+    <t>Total consumption</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Late fee amount</t>
+  </si>
+  <si>
+    <t>Total payment amount</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
+  </si>
+  <si>
+    <t>938361110233</t>
+  </si>
+  <si>
+    <t>0358619375</t>
+  </si>
+  <si>
+    <t>0358619378</t>
+  </si>
+  <si>
+    <t>0358619377</t>
+  </si>
+  <si>
+    <t>0358619376</t>
+  </si>
+  <si>
+    <t>0358619380</t>
+  </si>
+  <si>
+    <t>0358619379</t>
+  </si>
+  <si>
+    <t>0358619381</t>
+  </si>
+  <si>
+    <t>0358619382</t>
+  </si>
+  <si>
+    <t>0358619383</t>
+  </si>
+  <si>
+    <t>0358619384</t>
+  </si>
+  <si>
+    <t>0358619385</t>
+  </si>
+  <si>
+    <t>0358619386</t>
+  </si>
+  <si>
+    <t>0358619387</t>
+  </si>
+  <si>
+    <t>0358619388</t>
+  </si>
+  <si>
+    <t>0358619389</t>
+  </si>
+  <si>
+    <t>0358619390</t>
+  </si>
+  <si>
+    <t>Bill Status</t>
+  </si>
+  <si>
+    <t>15/4/2023</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t>13/4/2023</t>
+  </si>
+  <si>
+    <t>14/4/2023</t>
+  </si>
+  <si>
+    <t>16/4/2023</t>
+  </si>
+  <si>
+    <t>17/4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -333,16 +422,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,14 +756,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -666,13 +791,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -684,13 +809,27 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -705,505 +844,1356 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>358619375</v>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>938361110233</v>
+      <c r="G2" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="K2">
+        <v>400</v>
+      </c>
+      <c r="L2">
+        <v>909000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>358619376</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>686251751302</v>
       </c>
       <c r="H3">
         <v>107022012</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>358619377</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>112069168513</v>
       </c>
       <c r="H4">
         <v>107033013</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>700</v>
+      </c>
+      <c r="L4">
+        <v>1862500</v>
+      </c>
+      <c r="M4">
+        <v>186250</v>
+      </c>
+      <c r="N4">
+        <v>2048750</v>
+      </c>
+      <c r="O4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>358619378</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>411677269452</v>
       </c>
       <c r="H5">
         <v>107044014</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>358619379</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>149379069643</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
+      <c r="K6">
+        <v>350</v>
+      </c>
+      <c r="L6">
+        <v>767300</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7">
-        <v>358619380</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>420799467499</v>
       </c>
       <c r="H7">
         <v>107066016</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>358619381</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>475793365124</v>
       </c>
       <c r="H8">
         <v>107077017</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>900</v>
+      </c>
+      <c r="L8">
+        <v>2388300</v>
+      </c>
+      <c r="O8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9">
-        <v>358619382</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>270432965116</v>
       </c>
       <c r="H9">
         <v>107088018</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10">
-        <v>358619383</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>572786363529</v>
       </c>
       <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s">
-        <v>15</v>
+      <c r="K10">
+        <v>332</v>
+      </c>
+      <c r="L10">
+        <v>716288</v>
+      </c>
+      <c r="M10">
+        <v>71629</v>
+      </c>
+      <c r="N10">
+        <v>787917</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11">
-        <v>358619384</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>722274884150</v>
       </c>
       <c r="H11">
         <v>107022020</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>358619385</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>475544881837</v>
       </c>
       <c r="H12">
         <v>107033021</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P12" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>650</v>
+      </c>
+      <c r="L12">
+        <v>1731050</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="7">
+        <v>45264</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>358619386</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>667099622731</v>
       </c>
       <c r="H13">
         <v>107044022</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14">
-        <v>358619387</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>508720153385</v>
       </c>
       <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="J14" t="s">
-        <v>15</v>
+      <c r="K14">
+        <v>230</v>
+      </c>
+      <c r="L14">
+        <v>448080</v>
+      </c>
+      <c r="M14">
+        <v>44808</v>
+      </c>
+      <c r="N14">
+        <v>492888</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>358619388</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>398287229537</v>
       </c>
       <c r="H15">
         <v>107066023</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16">
-        <v>358619389</v>
-      </c>
-      <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>416183487820</v>
       </c>
       <c r="H16">
         <v>107077025</v>
       </c>
       <c r="I16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>600</v>
+      </c>
+      <c r="L16">
+        <v>1599600</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17">
-        <v>358619390</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>673919918723</v>
       </c>
       <c r="H17">
         <v>107088035</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+    </row>
+    <row r="58" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+    </row>
+    <row r="62" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+    </row>
+    <row r="64" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+    </row>
+    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+    </row>
+    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
+    </row>
+    <row r="82" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O82" s="8"/>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O83" s="8"/>
+      <c r="P83" s="8"/>
+    </row>
+    <row r="84" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+    </row>
+    <row r="88" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+    </row>
+    <row r="100" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O101" s="8"/>
+      <c r="P101" s="8"/>
+    </row>
+    <row r="102" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+    </row>
+    <row r="104" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O104" s="8"/>
+      <c r="P104" s="8"/>
+    </row>
+    <row r="105" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O105" s="8"/>
+      <c r="P105" s="8"/>
+    </row>
+    <row r="106" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O106" s="8"/>
+      <c r="P106" s="8"/>
+    </row>
+    <row r="107" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+    </row>
+    <row r="108" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+    </row>
+    <row r="109" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O109" s="8"/>
+      <c r="P109" s="8"/>
+    </row>
+    <row r="110" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+    </row>
+    <row r="111" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O111" s="8"/>
+      <c r="P111" s="8"/>
+    </row>
+    <row r="112" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+    </row>
+    <row r="113" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+    </row>
+    <row r="114" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+    </row>
+    <row r="115" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+    </row>
+    <row r="118" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+    </row>
+    <row r="119" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+    </row>
+    <row r="120" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+    </row>
+    <row r="121" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+    </row>
+    <row r="122" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+    </row>
+    <row r="123" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+    </row>
+    <row r="124" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+    </row>
+    <row r="125" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+    </row>
+    <row r="126" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+    </row>
+    <row r="127" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+    </row>
+    <row r="128" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+    </row>
+    <row r="129" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+    </row>
+    <row r="130" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+    </row>
+    <row r="131" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+    </row>
+    <row r="132" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+    </row>
+    <row r="133" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+    </row>
+    <row r="134" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+    </row>
+    <row r="135" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+    </row>
+    <row r="136" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+    </row>
+    <row r="137" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+    </row>
+    <row r="138" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O138" s="8"/>
+      <c r="P138" s="8"/>
+    </row>
+    <row r="139" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O139" s="8"/>
+      <c r="P139" s="8"/>
+    </row>
+    <row r="140" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+    </row>
+    <row r="141" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+    </row>
+    <row r="142" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+    </row>
+    <row r="143" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+    </row>
+    <row r="144" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+    </row>
+    <row r="145" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+    </row>
+    <row r="146" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+    </row>
+    <row r="147" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+    </row>
+    <row r="148" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+    </row>
+    <row r="149" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+    </row>
+    <row r="150" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+    </row>
+    <row r="151" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+    </row>
+    <row r="152" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+    </row>
+    <row r="153" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+    </row>
+    <row r="154" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+    </row>
+    <row r="155" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+    </row>
+    <row r="156" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O156" s="8"/>
+      <c r="P156" s="8"/>
+    </row>
+    <row r="157" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O157" s="8"/>
+      <c r="P157" s="8"/>
+    </row>
+    <row r="158" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+    </row>
+    <row r="159" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+    </row>
+    <row r="160" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+    </row>
+    <row r="161" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+    </row>
+    <row r="162" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+    </row>
+    <row r="163" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+    </row>
+    <row r="164" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+    </row>
+    <row r="165" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O165" s="8"/>
+      <c r="P165" s="8"/>
+    </row>
+    <row r="166" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O166" s="8"/>
+      <c r="P166" s="8"/>
+    </row>
+    <row r="167" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O167" s="8"/>
+      <c r="P167" s="8"/>
+    </row>
+    <row r="168" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O168" s="8"/>
+      <c r="P168" s="8"/>
+    </row>
+    <row r="169" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O169" s="8"/>
+      <c r="P169" s="8"/>
+    </row>
+    <row r="170" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O170" s="8"/>
+      <c r="P170" s="8"/>
+    </row>
+    <row r="171" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O171" s="8"/>
+      <c r="P171" s="8"/>
+    </row>
+    <row r="172" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O172" s="8"/>
+      <c r="P172" s="8"/>
+    </row>
+    <row r="173" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O173" s="8"/>
+      <c r="P173" s="8"/>
+    </row>
+    <row r="174" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+    </row>
+    <row r="175" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+    </row>
+    <row r="176" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O176" s="8"/>
+      <c r="P176" s="8"/>
+    </row>
+    <row r="177" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O177" s="8"/>
+      <c r="P177" s="8"/>
+    </row>
+    <row r="178" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O178" s="8"/>
+      <c r="P178" s="8"/>
+    </row>
+    <row r="179" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+    </row>
+    <row r="180" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+    </row>
+    <row r="181" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+    </row>
+    <row r="182" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+    </row>
+    <row r="183" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O183" s="8"/>
+      <c r="P183" s="8"/>
+    </row>
+    <row r="184" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O184" s="8"/>
+      <c r="P184" s="8"/>
+    </row>
+    <row r="185" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+    </row>
+    <row r="186" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O186" s="8"/>
+      <c r="P186" s="8"/>
+    </row>
+    <row r="187" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O187" s="8"/>
+      <c r="P187" s="8"/>
+    </row>
+    <row r="188" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O188" s="8"/>
+      <c r="P188" s="8"/>
+    </row>
+    <row r="189" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O189" s="8"/>
+      <c r="P189" s="8"/>
+    </row>
+    <row r="190" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O190" s="8"/>
+      <c r="P190" s="8"/>
+    </row>
+    <row r="191" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O191" s="8"/>
+      <c r="P191" s="8"/>
+    </row>
+    <row r="192" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O192" s="8"/>
+      <c r="P192" s="8"/>
+    </row>
+    <row r="193" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O193" s="8"/>
+      <c r="P193" s="8"/>
+    </row>
+    <row r="194" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+    </row>
+    <row r="195" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O195" s="8"/>
+      <c r="P195" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1251,21 +2241,21 @@
         <v>938361110233</v>
       </c>
       <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>358619376</v>
@@ -1277,21 +2267,21 @@
         <v>107022012</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>358619377</v>
@@ -1303,21 +2293,21 @@
         <v>107033013</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>358619378</v>
@@ -1329,21 +2319,21 @@
         <v>107044014</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>358619379</v>
@@ -1352,21 +2342,21 @@
         <v>149379069643</v>
       </c>
       <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>358619380</v>
@@ -1378,21 +2368,21 @@
         <v>107066016</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>358619381</v>
@@ -1404,21 +2394,21 @@
         <v>107077017</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>358619382</v>
@@ -1430,21 +2420,21 @@
         <v>107088018</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>358619383</v>
@@ -1453,21 +2443,21 @@
         <v>572786363529</v>
       </c>
       <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>358619384</v>
@@ -1479,21 +2469,21 @@
         <v>107022020</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>358619385</v>
@@ -1505,21 +2495,21 @@
         <v>107033021</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>358619386</v>
@@ -1531,21 +2521,21 @@
         <v>107044022</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14">
         <v>358619387</v>
@@ -1554,21 +2544,21 @@
         <v>508720153385</v>
       </c>
       <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
         <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>358619388</v>
@@ -1580,21 +2570,21 @@
         <v>107066023</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>358619389</v>
@@ -1606,21 +2596,21 @@
         <v>107077025</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17">
         <v>358619390</v>
@@ -1632,10 +2622,10 @@
         <v>107088035</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_customer.xlsx
+++ b/data/data_customer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88338895-CB87-49E3-A352-DF22C52E146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_customer" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="103">
   <si>
     <t>Customer Code</t>
   </si>
@@ -280,24 +281,6 @@
     <t>Administrative office</t>
   </si>
   <si>
-    <t>Total consumption</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Late fee amount</t>
-  </si>
-  <si>
-    <t>Total payment amount</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Payment Date</t>
-  </si>
-  <si>
     <t>938361110233</t>
   </si>
   <si>
@@ -347,36 +330,12 @@
   </si>
   <si>
     <t>0358619390</t>
-  </si>
-  <si>
-    <t>Bill Status</t>
-  </si>
-  <si>
-    <t>15/4/2023</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Overdue</t>
-  </si>
-  <si>
-    <t>13/4/2023</t>
-  </si>
-  <si>
-    <t>14/4/2023</t>
-  </si>
-  <si>
-    <t>16/4/2023</t>
-  </si>
-  <si>
-    <t>17/4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,12 +396,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,7 +413,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,11 +714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,27 +767,13 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -845,34 +789,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
         <v>83</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="K2">
-        <v>400</v>
-      </c>
-      <c r="L2">
-        <v>909000</v>
-      </c>
-      <c r="O2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -889,7 +818,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -921,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -937,24 +866,6 @@
       </c>
       <c r="J4" t="s">
         <v>14</v>
-      </c>
-      <c r="K4">
-        <v>700</v>
-      </c>
-      <c r="L4">
-        <v>1862500</v>
-      </c>
-      <c r="M4">
-        <v>186250</v>
-      </c>
-      <c r="N4">
-        <v>2048750</v>
-      </c>
-      <c r="O4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -971,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1003,7 +914,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
@@ -1016,21 +927,6 @@
       </c>
       <c r="J6" t="s">
         <v>14</v>
-      </c>
-      <c r="K6">
-        <v>350</v>
-      </c>
-      <c r="L6">
-        <v>767300</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1047,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -1079,7 +975,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -1095,21 +991,6 @@
       </c>
       <c r="J8" t="s">
         <v>14</v>
-      </c>
-      <c r="K8">
-        <v>900</v>
-      </c>
-      <c r="L8">
-        <v>2388300</v>
-      </c>
-      <c r="O8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1126,7 +1007,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -1158,7 +1039,7 @@
         <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -1171,25 +1052,6 @@
       </c>
       <c r="J10" t="s">
         <v>14</v>
-      </c>
-      <c r="K10">
-        <v>332</v>
-      </c>
-      <c r="L10">
-        <v>716288</v>
-      </c>
-      <c r="M10">
-        <v>71629</v>
-      </c>
-      <c r="N10">
-        <v>787917</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1206,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1223,8 +1085,6 @@
       <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1240,7 +1100,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -1257,21 +1117,7 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12">
-        <v>650</v>
-      </c>
-      <c r="L12">
-        <v>1731050</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" s="7">
-        <v>45264</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>111</v>
-      </c>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1287,7 +1133,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
@@ -1304,8 +1150,6 @@
       <c r="J13" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1321,7 +1165,7 @@
         <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>67</v>
@@ -1334,25 +1178,6 @@
       </c>
       <c r="J14" t="s">
         <v>14</v>
-      </c>
-      <c r="K14">
-        <v>230</v>
-      </c>
-      <c r="L14">
-        <v>448080</v>
-      </c>
-      <c r="M14">
-        <v>44808</v>
-      </c>
-      <c r="N14">
-        <v>492888</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
@@ -1386,8 +1211,6 @@
       <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1403,7 +1226,7 @@
         <v>76</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
         <v>77</v>
@@ -1420,23 +1243,8 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>600</v>
-      </c>
-      <c r="L16">
-        <v>1599600</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="P16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -1450,7 +1258,7 @@
         <v>81</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
         <v>82</v>
@@ -1467,720 +1275,6 @@
       <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-    </row>
-    <row r="37" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-    </row>
-    <row r="38" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-    </row>
-    <row r="39" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-    </row>
-    <row r="40" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-    </row>
-    <row r="41" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-    </row>
-    <row r="42" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-    </row>
-    <row r="43" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-    </row>
-    <row r="44" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-    </row>
-    <row r="45" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-    </row>
-    <row r="46" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-    </row>
-    <row r="47" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-    </row>
-    <row r="48" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-    </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-    </row>
-    <row r="53" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-    </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-    </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-    </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-    </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-    </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-    </row>
-    <row r="59" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-    </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-    </row>
-    <row r="62" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-    </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-    </row>
-    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-    </row>
-    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-    </row>
-    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-    </row>
-    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-    </row>
-    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-    </row>
-    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-    </row>
-    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-    </row>
-    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-    </row>
-    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-    </row>
-    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-    </row>
-    <row r="83" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-    </row>
-    <row r="84" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-    </row>
-    <row r="85" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-    </row>
-    <row r="86" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-    </row>
-    <row r="87" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-    </row>
-    <row r="88" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-    </row>
-    <row r="89" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-    </row>
-    <row r="90" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-    </row>
-    <row r="91" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-    </row>
-    <row r="92" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-    </row>
-    <row r="93" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-    </row>
-    <row r="94" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-    </row>
-    <row r="95" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-    </row>
-    <row r="96" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-    </row>
-    <row r="97" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-    </row>
-    <row r="98" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-    </row>
-    <row r="99" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-    </row>
-    <row r="100" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-    </row>
-    <row r="101" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-    </row>
-    <row r="102" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-    </row>
-    <row r="103" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-    </row>
-    <row r="104" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-    </row>
-    <row r="105" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-    </row>
-    <row r="106" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-    </row>
-    <row r="107" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-    </row>
-    <row r="108" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-    </row>
-    <row r="109" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-    </row>
-    <row r="110" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-    </row>
-    <row r="111" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-    </row>
-    <row r="112" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-    </row>
-    <row r="113" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-    </row>
-    <row r="114" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-    </row>
-    <row r="115" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-    </row>
-    <row r="116" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-    </row>
-    <row r="117" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-    </row>
-    <row r="118" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-    </row>
-    <row r="119" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-    </row>
-    <row r="120" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-    </row>
-    <row r="121" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-    </row>
-    <row r="122" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-    </row>
-    <row r="123" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-    </row>
-    <row r="124" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-    </row>
-    <row r="125" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-    </row>
-    <row r="126" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-    </row>
-    <row r="127" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-    </row>
-    <row r="128" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-    </row>
-    <row r="129" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-    </row>
-    <row r="130" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-    </row>
-    <row r="131" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-    </row>
-    <row r="132" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-    </row>
-    <row r="133" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-    </row>
-    <row r="134" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-    </row>
-    <row r="135" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-    </row>
-    <row r="136" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-    </row>
-    <row r="137" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-    </row>
-    <row r="138" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O138" s="8"/>
-      <c r="P138" s="8"/>
-    </row>
-    <row r="139" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O139" s="8"/>
-      <c r="P139" s="8"/>
-    </row>
-    <row r="140" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-    </row>
-    <row r="141" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-    </row>
-    <row r="142" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-    </row>
-    <row r="143" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O143" s="8"/>
-      <c r="P143" s="8"/>
-    </row>
-    <row r="144" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O144" s="8"/>
-      <c r="P144" s="8"/>
-    </row>
-    <row r="145" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-    </row>
-    <row r="146" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O146" s="8"/>
-      <c r="P146" s="8"/>
-    </row>
-    <row r="147" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-    </row>
-    <row r="148" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-    </row>
-    <row r="149" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O149" s="8"/>
-      <c r="P149" s="8"/>
-    </row>
-    <row r="150" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O150" s="8"/>
-      <c r="P150" s="8"/>
-    </row>
-    <row r="151" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O151" s="8"/>
-      <c r="P151" s="8"/>
-    </row>
-    <row r="152" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O152" s="8"/>
-      <c r="P152" s="8"/>
-    </row>
-    <row r="153" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-    </row>
-    <row r="154" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O154" s="8"/>
-      <c r="P154" s="8"/>
-    </row>
-    <row r="155" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O155" s="8"/>
-      <c r="P155" s="8"/>
-    </row>
-    <row r="156" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-    </row>
-    <row r="157" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O157" s="8"/>
-      <c r="P157" s="8"/>
-    </row>
-    <row r="158" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O158" s="8"/>
-      <c r="P158" s="8"/>
-    </row>
-    <row r="159" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O159" s="8"/>
-      <c r="P159" s="8"/>
-    </row>
-    <row r="160" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O160" s="8"/>
-      <c r="P160" s="8"/>
-    </row>
-    <row r="161" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O161" s="8"/>
-      <c r="P161" s="8"/>
-    </row>
-    <row r="162" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-    </row>
-    <row r="163" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-    </row>
-    <row r="164" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-    </row>
-    <row r="165" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O165" s="8"/>
-      <c r="P165" s="8"/>
-    </row>
-    <row r="166" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O166" s="8"/>
-      <c r="P166" s="8"/>
-    </row>
-    <row r="167" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O167" s="8"/>
-      <c r="P167" s="8"/>
-    </row>
-    <row r="168" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O168" s="8"/>
-      <c r="P168" s="8"/>
-    </row>
-    <row r="169" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O169" s="8"/>
-      <c r="P169" s="8"/>
-    </row>
-    <row r="170" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O170" s="8"/>
-      <c r="P170" s="8"/>
-    </row>
-    <row r="171" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O171" s="8"/>
-      <c r="P171" s="8"/>
-    </row>
-    <row r="172" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O172" s="8"/>
-      <c r="P172" s="8"/>
-    </row>
-    <row r="173" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O173" s="8"/>
-      <c r="P173" s="8"/>
-    </row>
-    <row r="174" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O174" s="8"/>
-      <c r="P174" s="8"/>
-    </row>
-    <row r="175" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-    </row>
-    <row r="176" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O176" s="8"/>
-      <c r="P176" s="8"/>
-    </row>
-    <row r="177" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O177" s="8"/>
-      <c r="P177" s="8"/>
-    </row>
-    <row r="178" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O178" s="8"/>
-      <c r="P178" s="8"/>
-    </row>
-    <row r="179" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O179" s="8"/>
-      <c r="P179" s="8"/>
-    </row>
-    <row r="180" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O180" s="8"/>
-      <c r="P180" s="8"/>
-    </row>
-    <row r="181" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O181" s="8"/>
-      <c r="P181" s="8"/>
-    </row>
-    <row r="182" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O182" s="8"/>
-      <c r="P182" s="8"/>
-    </row>
-    <row r="183" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O183" s="8"/>
-      <c r="P183" s="8"/>
-    </row>
-    <row r="184" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O184" s="8"/>
-      <c r="P184" s="8"/>
-    </row>
-    <row r="185" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O185" s="8"/>
-      <c r="P185" s="8"/>
-    </row>
-    <row r="186" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O186" s="8"/>
-      <c r="P186" s="8"/>
-    </row>
-    <row r="187" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O187" s="8"/>
-      <c r="P187" s="8"/>
-    </row>
-    <row r="188" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O188" s="8"/>
-      <c r="P188" s="8"/>
-    </row>
-    <row r="189" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O189" s="8"/>
-      <c r="P189" s="8"/>
-    </row>
-    <row r="190" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O190" s="8"/>
-      <c r="P190" s="8"/>
-    </row>
-    <row r="191" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O191" s="8"/>
-      <c r="P191" s="8"/>
-    </row>
-    <row r="192" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O192" s="8"/>
-      <c r="P192" s="8"/>
-    </row>
-    <row r="193" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O193" s="8"/>
-      <c r="P193" s="8"/>
-    </row>
-    <row r="194" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O194" s="8"/>
-      <c r="P194" s="8"/>
-    </row>
-    <row r="195" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O195" s="8"/>
-      <c r="P195" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2189,10 +1283,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
